--- a/dataanalysis/data/predictions/1400/07301446_1449.xlsx
+++ b/dataanalysis/data/predictions/1400/07301446_1449.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="196">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-07-30</t>
   </si>
   <si>
@@ -599,12 +602,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -962,13 +959,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH101"/>
+  <dimension ref="A1:AI101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1071,19 +1068,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300006</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>8.699999999999999</v>
@@ -1101,7 +1101,7 @@
         <v>88353.02</v>
       </c>
       <c r="J2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K2">
         <v>12</v>
@@ -1142,8 +1142,23 @@
       <c r="W2">
         <v>0.61</v>
       </c>
+      <c r="X2">
+        <v>5.77</v>
+      </c>
+      <c r="Y2">
+        <v>5.9</v>
+      </c>
+      <c r="Z2">
+        <v>9.869999999999999</v>
+      </c>
       <c r="AC2" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1151,22 +1166,25 @@
       <c r="AG2">
         <v>6.807610034942627</v>
       </c>
-      <c r="AH2" t="s">
-        <v>195</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300019</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>-3.59</v>
@@ -1184,7 +1202,7 @@
         <v>44978.16</v>
       </c>
       <c r="J3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K3">
         <v>16</v>
@@ -1225,8 +1243,23 @@
       <c r="W3">
         <v>-0.77</v>
       </c>
+      <c r="X3">
+        <v>-2.51</v>
+      </c>
+      <c r="Y3">
+        <v>21.58</v>
+      </c>
+      <c r="Z3">
+        <v>0.37</v>
+      </c>
       <c r="AC3" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1234,22 +1267,25 @@
       <c r="AG3">
         <v>3.152407884597778</v>
       </c>
-      <c r="AH3" t="s">
-        <v>195</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300021</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-6.03</v>
@@ -1267,7 +1303,7 @@
         <v>85603.56</v>
       </c>
       <c r="J4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K4">
         <v>6</v>
@@ -1308,8 +1344,23 @@
       <c r="W4">
         <v>-1.37</v>
       </c>
+      <c r="X4">
+        <v>1.77</v>
+      </c>
+      <c r="Y4">
+        <v>6.46</v>
+      </c>
+      <c r="Z4">
+        <v>3.69</v>
+      </c>
       <c r="AC4" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1317,22 +1368,25 @@
       <c r="AG4">
         <v>2.534953355789185</v>
       </c>
-      <c r="AH4" t="s">
-        <v>195</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300066</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>-4.55</v>
@@ -1350,7 +1404,7 @@
         <v>60037.24</v>
       </c>
       <c r="J5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K5">
         <v>14</v>
@@ -1391,8 +1445,23 @@
       <c r="W5">
         <v>-0.91</v>
       </c>
+      <c r="X5">
+        <v>-1.97</v>
+      </c>
+      <c r="Y5">
+        <v>6.16</v>
+      </c>
+      <c r="Z5">
+        <v>1.15</v>
+      </c>
       <c r="AC5" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>1</v>
@@ -1400,22 +1469,25 @@
       <c r="AG5">
         <v>2.817688703536987</v>
       </c>
-      <c r="AH5" t="s">
-        <v>195</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300086</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -1433,7 +1505,7 @@
         <v>107842.96</v>
       </c>
       <c r="J6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K6">
         <v>7</v>
@@ -1474,8 +1546,23 @@
       <c r="W6">
         <v>-0.21</v>
       </c>
+      <c r="X6">
+        <v>-1.06</v>
+      </c>
+      <c r="Y6">
+        <v>9</v>
+      </c>
+      <c r="Z6">
+        <v>8.17</v>
+      </c>
       <c r="AC6" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1483,22 +1570,25 @@
       <c r="AG6">
         <v>6.287031650543213</v>
       </c>
-      <c r="AH6" t="s">
-        <v>195</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300095</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>-1.1</v>
@@ -1516,7 +1606,7 @@
         <v>46451.4</v>
       </c>
       <c r="J7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K7">
         <v>7</v>
@@ -1557,8 +1647,23 @@
       <c r="W7">
         <v>-0.79</v>
       </c>
+      <c r="X7">
+        <v>1.94</v>
+      </c>
+      <c r="Y7">
+        <v>11.12</v>
+      </c>
+      <c r="Z7">
+        <v>3.06</v>
+      </c>
       <c r="AC7" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1566,22 +1671,25 @@
       <c r="AG7">
         <v>2.535505771636963</v>
       </c>
-      <c r="AH7" t="s">
-        <v>195</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300127</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>-4.06</v>
@@ -1599,7 +1707,7 @@
         <v>56142.87</v>
       </c>
       <c r="J8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1640,8 +1748,23 @@
       <c r="W8">
         <v>-0.93</v>
       </c>
+      <c r="X8">
+        <v>-2.96</v>
+      </c>
+      <c r="Y8">
+        <v>30.24</v>
+      </c>
+      <c r="Z8">
+        <v>0.8</v>
+      </c>
       <c r="AC8" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1649,22 +1772,25 @@
       <c r="AG8">
         <v>5.73062801361084</v>
       </c>
-      <c r="AH8" t="s">
-        <v>195</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300149</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>1.03</v>
@@ -1682,7 +1808,7 @@
         <v>225848.35</v>
       </c>
       <c r="J9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1723,8 +1849,23 @@
       <c r="W9">
         <v>-1.87</v>
       </c>
+      <c r="X9">
+        <v>3.56</v>
+      </c>
+      <c r="Y9">
+        <v>14.91</v>
+      </c>
+      <c r="Z9">
+        <v>8.44</v>
+      </c>
       <c r="AC9" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1732,22 +1873,25 @@
       <c r="AG9">
         <v>4.462545871734619</v>
       </c>
-      <c r="AH9" t="s">
-        <v>195</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300158</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>-3.77</v>
@@ -1765,7 +1909,7 @@
         <v>147051.6</v>
       </c>
       <c r="J10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K10">
         <v>6</v>
@@ -1806,8 +1950,23 @@
       <c r="W10">
         <v>-2.07</v>
       </c>
+      <c r="X10">
+        <v>16.64</v>
+      </c>
+      <c r="Y10">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="Z10">
+        <v>19.86</v>
+      </c>
       <c r="AC10" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1815,22 +1974,25 @@
       <c r="AG10">
         <v>1.987968802452087</v>
       </c>
-      <c r="AH10" t="s">
-        <v>195</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300188</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>-9.16</v>
@@ -1848,7 +2010,7 @@
         <v>170933.81</v>
       </c>
       <c r="J11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1889,8 +2051,23 @@
       <c r="W11">
         <v>-0.91</v>
       </c>
+      <c r="X11">
+        <v>-5.13</v>
+      </c>
+      <c r="Y11">
+        <v>17.68</v>
+      </c>
+      <c r="Z11">
+        <v>-0.95</v>
+      </c>
       <c r="AC11" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1898,22 +2075,25 @@
       <c r="AG11">
         <v>2.138067245483398</v>
       </c>
-      <c r="AH11" t="s">
-        <v>195</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300199</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>-5.33</v>
@@ -1931,7 +2111,7 @@
         <v>215231.72</v>
       </c>
       <c r="J12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1972,8 +2152,23 @@
       <c r="W12">
         <v>-1.69</v>
       </c>
+      <c r="X12">
+        <v>7.02</v>
+      </c>
+      <c r="Y12">
+        <v>21.09</v>
+      </c>
+      <c r="Z12">
+        <v>11</v>
+      </c>
       <c r="AC12" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1981,22 +2176,25 @@
       <c r="AG12">
         <v>1.245010375976562</v>
       </c>
-      <c r="AH12" t="s">
-        <v>195</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300224</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>-3.65</v>
@@ -2014,7 +2212,7 @@
         <v>73387.45</v>
       </c>
       <c r="J13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K13">
         <v>5</v>
@@ -2055,8 +2253,23 @@
       <c r="W13">
         <v>-0.07000000000000001</v>
       </c>
+      <c r="X13">
+        <v>-1.73</v>
+      </c>
+      <c r="Y13">
+        <v>16.28</v>
+      </c>
+      <c r="Z13">
+        <v>1.18</v>
+      </c>
       <c r="AC13" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2064,22 +2277,25 @@
       <c r="AG13">
         <v>6.391243934631348</v>
       </c>
-      <c r="AH13" t="s">
-        <v>195</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300254</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>3.58</v>
@@ -2097,7 +2313,7 @@
         <v>74071.7</v>
       </c>
       <c r="J14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K14">
         <v>6</v>
@@ -2138,8 +2354,23 @@
       <c r="W14">
         <v>0.25</v>
       </c>
+      <c r="X14">
+        <v>7.09</v>
+      </c>
+      <c r="Y14">
+        <v>14</v>
+      </c>
+      <c r="Z14">
+        <v>9.98</v>
+      </c>
       <c r="AC14" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2147,22 +2378,25 @@
       <c r="AG14">
         <v>2.574907779693604</v>
       </c>
-      <c r="AH14" t="s">
-        <v>195</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300267</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>5.63</v>
@@ -2180,7 +2414,7 @@
         <v>131844.94</v>
       </c>
       <c r="J15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K15">
         <v>4</v>
@@ -2221,8 +2455,23 @@
       <c r="W15">
         <v>0.05</v>
       </c>
+      <c r="X15">
+        <v>4.92</v>
+      </c>
+      <c r="Y15">
+        <v>4.82</v>
+      </c>
+      <c r="Z15">
+        <v>7.11</v>
+      </c>
       <c r="AC15" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2230,22 +2479,25 @@
       <c r="AG15">
         <v>5.470157146453857</v>
       </c>
-      <c r="AH15" t="s">
-        <v>195</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300283</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>-3.85</v>
@@ -2263,7 +2515,7 @@
         <v>27906.25</v>
       </c>
       <c r="J16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K16">
         <v>9</v>
@@ -2304,8 +2556,23 @@
       <c r="W16">
         <v>-1.31</v>
       </c>
+      <c r="X16">
+        <v>0.55</v>
+      </c>
+      <c r="Y16">
+        <v>7.64</v>
+      </c>
+      <c r="Z16">
+        <v>5.52</v>
+      </c>
       <c r="AC16" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2313,22 +2580,25 @@
       <c r="AG16">
         <v>0.4755484461784363</v>
       </c>
-      <c r="AH16" t="s">
-        <v>195</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300291</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2346,7 +2616,7 @@
         <v>35505.86</v>
       </c>
       <c r="J17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K17">
         <v>4</v>
@@ -2387,8 +2657,23 @@
       <c r="W17">
         <v>-0.17</v>
       </c>
+      <c r="X17">
+        <v>-3.12</v>
+      </c>
+      <c r="Y17">
+        <v>6.38</v>
+      </c>
+      <c r="Z17">
+        <v>0.31</v>
+      </c>
       <c r="AC17" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>1</v>
@@ -2396,22 +2681,25 @@
       <c r="AG17">
         <v>3.871703863143921</v>
       </c>
-      <c r="AH17" t="s">
-        <v>195</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300322</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>1.07</v>
@@ -2429,7 +2717,7 @@
         <v>211181.35</v>
       </c>
       <c r="J18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -2470,8 +2758,23 @@
       <c r="W18">
         <v>0.26</v>
       </c>
+      <c r="X18">
+        <v>4.56</v>
+      </c>
+      <c r="Y18">
+        <v>21.48</v>
+      </c>
+      <c r="Z18">
+        <v>13.53</v>
+      </c>
       <c r="AC18" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2479,22 +2782,25 @@
       <c r="AG18">
         <v>4.680848598480225</v>
       </c>
-      <c r="AH18" t="s">
-        <v>195</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300363</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>-4.71</v>
@@ -2512,7 +2818,7 @@
         <v>115409.47</v>
       </c>
       <c r="J19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K19">
         <v>6</v>
@@ -2553,8 +2859,23 @@
       <c r="W19">
         <v>-1.18</v>
       </c>
+      <c r="X19">
+        <v>-2.06</v>
+      </c>
+      <c r="Y19">
+        <v>24.7</v>
+      </c>
+      <c r="Z19">
+        <v>1.73</v>
+      </c>
       <c r="AC19" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>1</v>
@@ -2562,22 +2883,25 @@
       <c r="AG19">
         <v>5.162497043609619</v>
       </c>
-      <c r="AH19" t="s">
-        <v>195</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300378</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>-1.75</v>
@@ -2595,7 +2919,7 @@
         <v>110315.2</v>
       </c>
       <c r="J20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K20">
         <v>4</v>
@@ -2636,8 +2960,23 @@
       <c r="W20">
         <v>-0.35</v>
       </c>
+      <c r="X20">
+        <v>6.98</v>
+      </c>
+      <c r="Y20">
+        <v>56.5</v>
+      </c>
+      <c r="Z20">
+        <v>15.38</v>
+      </c>
       <c r="AC20" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2645,22 +2984,25 @@
       <c r="AG20">
         <v>3.522465944290161</v>
       </c>
-      <c r="AH20" t="s">
-        <v>195</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300410</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>-5.78</v>
@@ -2678,7 +3020,7 @@
         <v>58198.57</v>
       </c>
       <c r="J21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -2719,8 +3061,23 @@
       <c r="W21">
         <v>-2.55</v>
       </c>
+      <c r="X21">
+        <v>-0.12</v>
+      </c>
+      <c r="Y21">
+        <v>9.85</v>
+      </c>
+      <c r="Z21">
+        <v>16.16</v>
+      </c>
       <c r="AC21" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2728,22 +3085,25 @@
       <c r="AG21">
         <v>4.958296298980713</v>
       </c>
-      <c r="AH21" t="s">
-        <v>195</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300414</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>-3.62</v>
@@ -2761,7 +3121,7 @@
         <v>92677.98</v>
       </c>
       <c r="J22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K22">
         <v>13</v>
@@ -2802,8 +3162,23 @@
       <c r="W22">
         <v>-1.17</v>
       </c>
+      <c r="X22">
+        <v>-3.36</v>
+      </c>
+      <c r="Y22">
+        <v>16.01</v>
+      </c>
+      <c r="Z22">
+        <v>3.62</v>
+      </c>
       <c r="AC22" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>1</v>
@@ -2811,22 +3186,25 @@
       <c r="AG22">
         <v>3.018340349197388</v>
       </c>
-      <c r="AH22" t="s">
-        <v>195</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300434</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>7.06</v>
@@ -2844,7 +3222,7 @@
         <v>76251.12</v>
       </c>
       <c r="J23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -2885,8 +3263,23 @@
       <c r="W23">
         <v>-0.25</v>
       </c>
+      <c r="X23">
+        <v>-2.67</v>
+      </c>
+      <c r="Y23">
+        <v>11.75</v>
+      </c>
+      <c r="Z23">
+        <v>0.6899999999999999</v>
+      </c>
       <c r="AC23" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2894,22 +3287,25 @@
       <c r="AG23">
         <v>2.620079040527344</v>
       </c>
-      <c r="AH23" t="s">
-        <v>195</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300436</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>3.59</v>
@@ -2927,7 +3323,7 @@
         <v>146907.96</v>
       </c>
       <c r="J24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K24">
         <v>20</v>
@@ -2968,8 +3364,23 @@
       <c r="W24">
         <v>0.07000000000000001</v>
       </c>
+      <c r="X24">
+        <v>18.04</v>
+      </c>
+      <c r="Y24">
+        <v>116.4</v>
+      </c>
+      <c r="Z24">
+        <v>21.85</v>
+      </c>
       <c r="AC24" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2977,22 +3388,25 @@
       <c r="AG24">
         <v>0.3468798995018005</v>
       </c>
-      <c r="AH24" t="s">
-        <v>195</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300469</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>0.62</v>
@@ -3010,7 +3424,7 @@
         <v>71246.66</v>
       </c>
       <c r="J25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K25">
         <v>12</v>
@@ -3051,8 +3465,23 @@
       <c r="W25">
         <v>0.2</v>
       </c>
+      <c r="X25">
+        <v>0.19</v>
+      </c>
+      <c r="Y25">
+        <v>48.73</v>
+      </c>
+      <c r="Z25">
+        <v>3.24</v>
+      </c>
       <c r="AC25" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3060,22 +3489,25 @@
       <c r="AG25">
         <v>3.936942100524902</v>
       </c>
-      <c r="AH25" t="s">
-        <v>195</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300502</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>-1.68</v>
@@ -3093,7 +3525,7 @@
         <v>1025562.42</v>
       </c>
       <c r="J26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K26">
         <v>26</v>
@@ -3134,8 +3566,23 @@
       <c r="W26">
         <v>-0.23</v>
       </c>
+      <c r="X26">
+        <v>-0.6</v>
+      </c>
+      <c r="Y26">
+        <v>200.88</v>
+      </c>
+      <c r="Z26">
+        <v>5.64</v>
+      </c>
       <c r="AC26" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3143,22 +3590,25 @@
       <c r="AG26">
         <v>3.340260982513428</v>
       </c>
-      <c r="AH26" t="s">
-        <v>195</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300505</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -3176,7 +3626,7 @@
         <v>55581.5</v>
       </c>
       <c r="J27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -3217,8 +3667,23 @@
       <c r="W27">
         <v>-0.2</v>
       </c>
+      <c r="X27">
+        <v>0.1</v>
+      </c>
+      <c r="Y27">
+        <v>21.07</v>
+      </c>
+      <c r="Z27">
+        <v>1.74</v>
+      </c>
       <c r="AC27" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3226,22 +3691,25 @@
       <c r="AG27">
         <v>2.227577447891235</v>
       </c>
-      <c r="AH27" t="s">
-        <v>195</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300522</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-2.39</v>
@@ -3259,7 +3727,7 @@
         <v>26965.82</v>
       </c>
       <c r="J28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -3300,8 +3768,23 @@
       <c r="W28">
         <v>-0.72</v>
       </c>
+      <c r="X28">
+        <v>0.4</v>
+      </c>
+      <c r="Y28">
+        <v>15.89</v>
+      </c>
+      <c r="Z28">
+        <v>5.37</v>
+      </c>
       <c r="AC28" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3309,22 +3792,25 @@
       <c r="AG28">
         <v>2.280572652816772</v>
       </c>
-      <c r="AH28" t="s">
-        <v>195</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300527</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>5.45</v>
@@ -3342,7 +3828,7 @@
         <v>157552.08</v>
       </c>
       <c r="J29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K29">
         <v>22</v>
@@ -3383,8 +3869,23 @@
       <c r="W29">
         <v>0.54</v>
       </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>-100</v>
+      </c>
       <c r="AC29" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3392,22 +3893,25 @@
       <c r="AG29">
         <v>0.3822744190692902</v>
       </c>
-      <c r="AH29" t="s">
-        <v>195</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300528</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>20</v>
@@ -3425,7 +3929,7 @@
         <v>152239.27</v>
       </c>
       <c r="J30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K30">
         <v>6</v>
@@ -3466,8 +3970,23 @@
       <c r="W30">
         <v>-2.06</v>
       </c>
+      <c r="X30">
+        <v>-8.289999999999999</v>
+      </c>
+      <c r="Y30">
+        <v>28.26</v>
+      </c>
+      <c r="Z30">
+        <v>11.61</v>
+      </c>
       <c r="AC30" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD30">
+        <v>1</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
       </c>
       <c r="AF30">
         <v>1</v>
@@ -3475,22 +3994,25 @@
       <c r="AG30">
         <v>11.88085460662842</v>
       </c>
-      <c r="AH30" t="s">
-        <v>195</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300533</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>0.29</v>
@@ -3508,7 +4030,7 @@
         <v>83932.3</v>
       </c>
       <c r="J31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K31">
         <v>26</v>
@@ -3549,8 +4071,23 @@
       <c r="W31">
         <v>-0.62</v>
       </c>
+      <c r="X31">
+        <v>-4.84</v>
+      </c>
+      <c r="Y31">
+        <v>37.8</v>
+      </c>
+      <c r="Z31">
+        <v>0.51</v>
+      </c>
       <c r="AC31" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3558,22 +4095,25 @@
       <c r="AG31">
         <v>2.961138725280762</v>
       </c>
-      <c r="AH31" t="s">
-        <v>195</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300537</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>0.72</v>
@@ -3591,7 +4131,7 @@
         <v>47138.71</v>
       </c>
       <c r="J32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -3632,8 +4172,23 @@
       <c r="W32">
         <v>0.6</v>
       </c>
+      <c r="X32">
+        <v>-3.12</v>
+      </c>
+      <c r="Y32">
+        <v>27.02</v>
+      </c>
+      <c r="Z32">
+        <v>1.46</v>
+      </c>
       <c r="AC32" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>1</v>
@@ -3641,22 +4196,25 @@
       <c r="AG32">
         <v>5.998387336730957</v>
       </c>
-      <c r="AH32" t="s">
-        <v>196</v>
+      <c r="AH32">
+        <v>1</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300539</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>-6.07</v>
@@ -3674,7 +4232,7 @@
         <v>96276.42</v>
       </c>
       <c r="J33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K33">
         <v>5</v>
@@ -3715,8 +4273,23 @@
       <c r="W33">
         <v>0.9399999999999999</v>
       </c>
+      <c r="X33">
+        <v>-2.03</v>
+      </c>
+      <c r="Y33">
+        <v>29</v>
+      </c>
+      <c r="Z33">
+        <v>4.66</v>
+      </c>
       <c r="AC33" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>1</v>
@@ -3724,22 +4297,25 @@
       <c r="AG33">
         <v>6.443766117095947</v>
       </c>
-      <c r="AH33" t="s">
-        <v>195</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300548</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>-1.53</v>
@@ -3757,7 +4333,7 @@
         <v>180232.59</v>
       </c>
       <c r="J34" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K34">
         <v>12</v>
@@ -3798,8 +4374,23 @@
       <c r="W34">
         <v>-0.41</v>
       </c>
+      <c r="X34">
+        <v>-5.2</v>
+      </c>
+      <c r="Y34">
+        <v>94.76000000000001</v>
+      </c>
+      <c r="Z34">
+        <v>4.21</v>
+      </c>
       <c r="AC34" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3807,22 +4398,25 @@
       <c r="AG34">
         <v>6.175658226013184</v>
       </c>
-      <c r="AH34" t="s">
-        <v>195</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300581</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>-3.5</v>
@@ -3840,7 +4434,7 @@
         <v>186683.53</v>
       </c>
       <c r="J35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -3881,8 +4475,23 @@
       <c r="W35">
         <v>-1.45</v>
       </c>
+      <c r="X35">
+        <v>2.58</v>
+      </c>
+      <c r="Y35">
+        <v>22.99</v>
+      </c>
+      <c r="Z35">
+        <v>4.22</v>
+      </c>
       <c r="AC35" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3890,22 +4499,25 @@
       <c r="AG35">
         <v>1.785178899765015</v>
       </c>
-      <c r="AH35" t="s">
-        <v>195</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300588</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>-6.05</v>
@@ -3923,7 +4535,7 @@
         <v>50155.09</v>
       </c>
       <c r="J36" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -3964,8 +4576,23 @@
       <c r="W36">
         <v>0.08</v>
       </c>
+      <c r="X36">
+        <v>3.66</v>
+      </c>
+      <c r="Y36">
+        <v>21.12</v>
+      </c>
+      <c r="Z36">
+        <v>11.57</v>
+      </c>
       <c r="AC36" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>1</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3973,22 +4600,25 @@
       <c r="AG36">
         <v>5.385260105133057</v>
       </c>
-      <c r="AH36" t="s">
-        <v>195</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300600</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>14.65</v>
@@ -4006,7 +4636,7 @@
         <v>131477.12</v>
       </c>
       <c r="J37" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -4047,8 +4677,23 @@
       <c r="W37">
         <v>3.57</v>
       </c>
+      <c r="X37">
+        <v>-5.71</v>
+      </c>
+      <c r="Y37">
+        <v>17.44</v>
+      </c>
+      <c r="Z37">
+        <v>-3.11</v>
+      </c>
       <c r="AC37" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>1</v>
@@ -4056,22 +4701,25 @@
       <c r="AG37">
         <v>3.567547798156738</v>
       </c>
-      <c r="AH37" t="s">
-        <v>196</v>
+      <c r="AH37">
+        <v>1</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300631</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>-1.8</v>
@@ -4089,7 +4737,7 @@
         <v>33893.62</v>
       </c>
       <c r="J38" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K38">
         <v>13</v>
@@ -4130,8 +4778,23 @@
       <c r="W38">
         <v>-0.42</v>
       </c>
+      <c r="X38">
+        <v>-1.95</v>
+      </c>
+      <c r="Y38">
+        <v>31.28</v>
+      </c>
+      <c r="Z38">
+        <v>0.35</v>
+      </c>
       <c r="AC38" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4139,22 +4802,25 @@
       <c r="AG38">
         <v>5.096834182739258</v>
       </c>
-      <c r="AH38" t="s">
-        <v>195</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>300644</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>-5.55</v>
@@ -4172,7 +4838,7 @@
         <v>41692.95</v>
       </c>
       <c r="J39" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K39">
         <v>10</v>
@@ -4213,8 +4879,23 @@
       <c r="W39">
         <v>-1.66</v>
       </c>
+      <c r="X39">
+        <v>-1.07</v>
+      </c>
+      <c r="Y39">
+        <v>33.5</v>
+      </c>
+      <c r="Z39">
+        <v>2.04</v>
+      </c>
       <c r="AC39" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>1</v>
@@ -4222,22 +4903,25 @@
       <c r="AG39">
         <v>1.89114248752594</v>
       </c>
-      <c r="AH39" t="s">
-        <v>195</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>300683</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>3.08</v>
@@ -4255,7 +4939,7 @@
         <v>81065.72</v>
       </c>
       <c r="J40" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K40">
         <v>8</v>
@@ -4296,8 +4980,23 @@
       <c r="W40">
         <v>-0.63</v>
       </c>
+      <c r="X40">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="Y40">
+        <v>58.99</v>
+      </c>
+      <c r="Z40">
+        <v>13.07</v>
+      </c>
       <c r="AC40" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>1</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4305,22 +5004,25 @@
       <c r="AG40">
         <v>4.31266975402832</v>
       </c>
-      <c r="AH40" t="s">
-        <v>195</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>300684</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>-1.91</v>
@@ -4338,7 +5040,7 @@
         <v>60977.36</v>
       </c>
       <c r="J41" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -4379,8 +5081,23 @@
       <c r="W41">
         <v>-1.14</v>
       </c>
+      <c r="X41">
+        <v>0.5</v>
+      </c>
+      <c r="Y41">
+        <v>31.1</v>
+      </c>
+      <c r="Z41">
+        <v>4.54</v>
+      </c>
       <c r="AC41" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>1</v>
@@ -4388,22 +5105,25 @@
       <c r="AG41">
         <v>2.27179217338562</v>
       </c>
-      <c r="AH41" t="s">
-        <v>195</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>300706</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>10.66</v>
@@ -4421,7 +5141,7 @@
         <v>156517.5</v>
       </c>
       <c r="J42" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K42">
         <v>4</v>
@@ -4462,8 +5182,23 @@
       <c r="W42">
         <v>-1.43</v>
       </c>
+      <c r="X42">
+        <v>-4.53</v>
+      </c>
+      <c r="Y42">
+        <v>38.33</v>
+      </c>
+      <c r="Z42">
+        <v>0.34</v>
+      </c>
       <c r="AC42" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4471,22 +5206,25 @@
       <c r="AG42">
         <v>2.096073627471924</v>
       </c>
-      <c r="AH42" t="s">
-        <v>195</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>300722</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>-2.08</v>
@@ -4504,7 +5242,7 @@
         <v>68105</v>
       </c>
       <c r="J43" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K43">
         <v>8</v>
@@ -4545,8 +5283,23 @@
       <c r="W43">
         <v>-0.49</v>
       </c>
+      <c r="X43">
+        <v>0.28</v>
+      </c>
+      <c r="Y43">
+        <v>39.87</v>
+      </c>
+      <c r="Z43">
+        <v>1.79</v>
+      </c>
       <c r="AC43" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4554,22 +5307,25 @@
       <c r="AG43">
         <v>1.782909512519836</v>
       </c>
-      <c r="AH43" t="s">
-        <v>195</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>300725</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-7.34</v>
@@ -4587,7 +5343,7 @@
         <v>164545.56</v>
       </c>
       <c r="J44" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -4628,8 +5384,23 @@
       <c r="W44">
         <v>-0.47</v>
       </c>
+      <c r="X44">
+        <v>-0.08</v>
+      </c>
+      <c r="Y44">
+        <v>51.47</v>
+      </c>
+      <c r="Z44">
+        <v>4.61</v>
+      </c>
       <c r="AC44" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4637,22 +5408,25 @@
       <c r="AG44">
         <v>5.811053276062012</v>
       </c>
-      <c r="AH44" t="s">
-        <v>195</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>300732</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>20</v>
@@ -4670,7 +5444,7 @@
         <v>61552.97</v>
       </c>
       <c r="J45" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -4711,8 +5485,23 @@
       <c r="W45">
         <v>4.73</v>
       </c>
+      <c r="X45">
+        <v>7.91</v>
+      </c>
+      <c r="Y45">
+        <v>12.74</v>
+      </c>
+      <c r="Z45">
+        <v>19.96</v>
+      </c>
       <c r="AC45" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD45">
+        <v>1</v>
+      </c>
+      <c r="AE45">
+        <v>1</v>
       </c>
       <c r="AF45">
         <v>1</v>
@@ -4720,22 +5509,25 @@
       <c r="AG45">
         <v>8.061992645263672</v>
       </c>
-      <c r="AH45" t="s">
-        <v>196</v>
+      <c r="AH45">
+        <v>1</v>
+      </c>
+      <c r="AI45">
+        <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>300747</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>-0.6</v>
@@ -4753,7 +5545,7 @@
         <v>82344.81</v>
       </c>
       <c r="J46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K46">
         <v>10</v>
@@ -4794,8 +5586,23 @@
       <c r="W46">
         <v>-0.23</v>
       </c>
+      <c r="X46">
+        <v>-0.9</v>
+      </c>
+      <c r="Y46">
+        <v>30.76</v>
+      </c>
+      <c r="Z46">
+        <v>2.91</v>
+      </c>
       <c r="AC46" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4803,22 +5610,25 @@
       <c r="AG46">
         <v>6.736961364746094</v>
       </c>
-      <c r="AH46" t="s">
-        <v>195</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>300748</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>-3.06</v>
@@ -4836,7 +5646,7 @@
         <v>157067.9</v>
       </c>
       <c r="J47" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K47">
         <v>14</v>
@@ -4877,8 +5687,23 @@
       <c r="W47">
         <v>-0.84</v>
       </c>
+      <c r="X47">
+        <v>0.11</v>
+      </c>
+      <c r="Y47">
+        <v>27.82</v>
+      </c>
+      <c r="Z47">
+        <v>2.02</v>
+      </c>
       <c r="AC47" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4886,22 +5711,25 @@
       <c r="AG47">
         <v>2.723434209823608</v>
       </c>
-      <c r="AH47" t="s">
-        <v>195</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>300803</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>-1.95</v>
@@ -4919,7 +5747,7 @@
         <v>311130.75</v>
       </c>
       <c r="J48" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K48">
         <v>24</v>
@@ -4960,8 +5788,23 @@
       <c r="W48">
         <v>-0.47</v>
       </c>
+      <c r="X48">
+        <v>-3.5</v>
+      </c>
+      <c r="Y48">
+        <v>92.67</v>
+      </c>
+      <c r="Z48">
+        <v>0.66</v>
+      </c>
       <c r="AC48" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4969,22 +5812,25 @@
       <c r="AG48">
         <v>3.235866785049438</v>
       </c>
-      <c r="AH48" t="s">
-        <v>195</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>300835</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>-2.46</v>
@@ -5002,7 +5848,7 @@
         <v>59333.24</v>
       </c>
       <c r="J49" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K49">
         <v>7</v>
@@ -5043,8 +5889,23 @@
       <c r="W49">
         <v>0.39</v>
       </c>
+      <c r="X49">
+        <v>0.92</v>
+      </c>
+      <c r="Y49">
+        <v>60.19</v>
+      </c>
+      <c r="Z49">
+        <v>5.21</v>
+      </c>
       <c r="AC49" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -5052,22 +5913,25 @@
       <c r="AG49">
         <v>1.74541163444519</v>
       </c>
-      <c r="AH49" t="s">
-        <v>195</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>300869</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>9.74</v>
@@ -5085,7 +5949,7 @@
         <v>96291.87</v>
       </c>
       <c r="J50" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K50">
         <v>3</v>
@@ -5126,8 +5990,23 @@
       <c r="W50">
         <v>1.27</v>
       </c>
+      <c r="X50">
+        <v>1.07</v>
+      </c>
+      <c r="Y50">
+        <v>21.06</v>
+      </c>
+      <c r="Z50">
+        <v>2.73</v>
+      </c>
       <c r="AC50" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5135,22 +6014,25 @@
       <c r="AG50">
         <v>1.61299192905426</v>
       </c>
-      <c r="AH50" t="s">
-        <v>195</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>300872</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>-7.73</v>
@@ -5168,7 +6050,7 @@
         <v>163059.01</v>
       </c>
       <c r="J51" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K51">
         <v>5</v>
@@ -5209,8 +6091,23 @@
       <c r="W51">
         <v>-2.65</v>
       </c>
+      <c r="X51">
+        <v>-1.97</v>
+      </c>
+      <c r="Y51">
+        <v>25.86</v>
+      </c>
+      <c r="Z51">
+        <v>1.21</v>
+      </c>
       <c r="AC51" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5218,22 +6115,25 @@
       <c r="AG51">
         <v>1.214479684829712</v>
       </c>
-      <c r="AH51" t="s">
-        <v>195</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>300877</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>20</v>
@@ -5251,7 +6151,7 @@
         <v>39921.02</v>
       </c>
       <c r="J52" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K52">
         <v>4</v>
@@ -5292,8 +6192,23 @@
       <c r="W52">
         <v>1.13</v>
       </c>
+      <c r="X52">
+        <v>-0.92</v>
+      </c>
+      <c r="Y52">
+        <v>33.47</v>
+      </c>
+      <c r="Z52">
+        <v>9.380000000000001</v>
+      </c>
       <c r="AC52" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD52">
+        <v>1</v>
+      </c>
+      <c r="AE52">
+        <v>1</v>
       </c>
       <c r="AF52">
         <v>1</v>
@@ -5301,22 +6216,25 @@
       <c r="AG52">
         <v>13.09823036193848</v>
       </c>
-      <c r="AH52" t="s">
-        <v>195</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>300885</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>11.21</v>
@@ -5334,7 +6252,7 @@
         <v>106448.7</v>
       </c>
       <c r="J53" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K53">
         <v>6</v>
@@ -5375,8 +6293,23 @@
       <c r="W53">
         <v>-2.12</v>
       </c>
+      <c r="X53">
+        <v>-0.99</v>
+      </c>
+      <c r="Y53">
+        <v>25.54</v>
+      </c>
+      <c r="Z53">
+        <v>11.97</v>
+      </c>
       <c r="AC53" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>1</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5384,22 +6317,25 @@
       <c r="AG53">
         <v>7.036343097686768</v>
       </c>
-      <c r="AH53" t="s">
-        <v>195</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>300903</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>-1.55</v>
@@ -5417,7 +6353,7 @@
         <v>44415.56</v>
       </c>
       <c r="J54" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K54">
         <v>2</v>
@@ -5458,8 +6394,23 @@
       <c r="W54">
         <v>-0.9399999999999999</v>
       </c>
+      <c r="X54">
+        <v>-1.08</v>
+      </c>
+      <c r="Y54">
+        <v>12.78</v>
+      </c>
+      <c r="Z54">
+        <v>6.15</v>
+      </c>
       <c r="AC54" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5467,22 +6418,25 @@
       <c r="AG54">
         <v>3.167752981185913</v>
       </c>
-      <c r="AH54" t="s">
-        <v>195</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>300907</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>3.63</v>
@@ -5500,7 +6454,7 @@
         <v>34160.38</v>
       </c>
       <c r="J55" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -5541,8 +6495,23 @@
       <c r="W55">
         <v>0.23</v>
       </c>
+      <c r="X55">
+        <v>1.39</v>
+      </c>
+      <c r="Y55">
+        <v>33.78</v>
+      </c>
+      <c r="Z55">
+        <v>2.09</v>
+      </c>
       <c r="AC55" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5550,22 +6519,25 @@
       <c r="AG55">
         <v>2.946282863616943</v>
       </c>
-      <c r="AH55" t="s">
-        <v>195</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>300950</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>-3.89</v>
@@ -5583,7 +6555,7 @@
         <v>28917.19</v>
       </c>
       <c r="J56" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K56">
         <v>4</v>
@@ -5624,8 +6596,23 @@
       <c r="W56">
         <v>-1.39</v>
       </c>
+      <c r="X56">
+        <v>-1.88</v>
+      </c>
+      <c r="Y56">
+        <v>30.86</v>
+      </c>
+      <c r="Z56">
+        <v>2.32</v>
+      </c>
       <c r="AC56" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5633,22 +6620,25 @@
       <c r="AG56">
         <v>5.204748153686523</v>
       </c>
-      <c r="AH56" t="s">
-        <v>195</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>300987</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>3.88</v>
@@ -5666,7 +6656,7 @@
         <v>59624.26</v>
       </c>
       <c r="J57" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K57">
         <v>1</v>
@@ -5707,8 +6697,23 @@
       <c r="W57">
         <v>0.52</v>
       </c>
+      <c r="X57">
+        <v>-1.39</v>
+      </c>
+      <c r="Y57">
+        <v>22.79</v>
+      </c>
+      <c r="Z57">
+        <v>1.33</v>
+      </c>
       <c r="AC57" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5716,22 +6721,25 @@
       <c r="AG57">
         <v>1.589907288551331</v>
       </c>
-      <c r="AH57" t="s">
-        <v>195</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>301007</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>0.71</v>
@@ -5749,7 +6757,7 @@
         <v>66073.48</v>
       </c>
       <c r="J58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K58">
         <v>4</v>
@@ -5790,8 +6798,23 @@
       <c r="W58">
         <v>-0.98</v>
       </c>
+      <c r="X58">
+        <v>-0.05</v>
+      </c>
+      <c r="Y58">
+        <v>39.68</v>
+      </c>
+      <c r="Z58">
+        <v>3.15</v>
+      </c>
       <c r="AC58" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5799,22 +6822,25 @@
       <c r="AG58">
         <v>4.630333423614502</v>
       </c>
-      <c r="AH58" t="s">
-        <v>195</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>301038</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>10.66</v>
@@ -5832,7 +6858,7 @@
         <v>119715.17</v>
       </c>
       <c r="J59" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K59">
         <v>2</v>
@@ -5873,8 +6899,23 @@
       <c r="W59">
         <v>-0.11</v>
       </c>
+      <c r="X59">
+        <v>-10</v>
+      </c>
+      <c r="Y59">
+        <v>32.5</v>
+      </c>
+      <c r="Z59">
+        <v>-4.24</v>
+      </c>
       <c r="AC59" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5882,22 +6923,25 @@
       <c r="AG59">
         <v>6.305798053741455</v>
       </c>
-      <c r="AH59" t="s">
-        <v>195</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>301095</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>0.95</v>
@@ -5915,7 +6959,7 @@
         <v>57067.97</v>
       </c>
       <c r="J60" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K60">
         <v>1</v>
@@ -5956,8 +7000,23 @@
       <c r="W60">
         <v>0.24</v>
       </c>
+      <c r="X60">
+        <v>0.8</v>
+      </c>
+      <c r="Y60">
+        <v>65.97</v>
+      </c>
+      <c r="Z60">
+        <v>5.55</v>
+      </c>
       <c r="AC60" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -5965,22 +7024,25 @@
       <c r="AG60">
         <v>1.323797583580017</v>
       </c>
-      <c r="AH60" t="s">
-        <v>195</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>301132</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>0.76</v>
@@ -5998,7 +7060,7 @@
         <v>50364.04</v>
       </c>
       <c r="J61" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K61">
         <v>3</v>
@@ -6039,8 +7101,23 @@
       <c r="W61">
         <v>-0.92</v>
       </c>
+      <c r="X61">
+        <v>-3.2</v>
+      </c>
+      <c r="Y61">
+        <v>40.51</v>
+      </c>
+      <c r="Z61">
+        <v>2.04</v>
+      </c>
       <c r="AC61" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>1</v>
@@ -6048,22 +7125,25 @@
       <c r="AG61">
         <v>3.432441473007202</v>
       </c>
-      <c r="AH61" t="s">
-        <v>195</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>301150</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>-5.08</v>
@@ -6081,7 +7161,7 @@
         <v>39618.04</v>
       </c>
       <c r="J62" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K62">
         <v>4</v>
@@ -6122,8 +7202,23 @@
       <c r="W62">
         <v>-1.21</v>
       </c>
+      <c r="X62">
+        <v>11.69</v>
+      </c>
+      <c r="Y62">
+        <v>30.5</v>
+      </c>
+      <c r="Z62">
+        <v>19.19</v>
+      </c>
       <c r="AC62" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>1</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -6131,22 +7226,25 @@
       <c r="AG62">
         <v>1.634092092514038</v>
       </c>
-      <c r="AH62" t="s">
-        <v>195</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>301151</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>4.41</v>
@@ -6164,7 +7262,7 @@
         <v>52307.24</v>
       </c>
       <c r="J63" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K63">
         <v>6</v>
@@ -6205,8 +7303,23 @@
       <c r="W63">
         <v>0.25</v>
       </c>
+      <c r="X63">
+        <v>-3.55</v>
+      </c>
+      <c r="Y63">
+        <v>24.32</v>
+      </c>
+      <c r="Z63">
+        <v>1.71</v>
+      </c>
       <c r="AC63" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6214,22 +7327,25 @@
       <c r="AG63">
         <v>0.04335460066795349</v>
       </c>
-      <c r="AH63" t="s">
-        <v>195</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>301161</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>1.12</v>
@@ -6247,7 +7363,7 @@
         <v>48483.41</v>
       </c>
       <c r="J64" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K64">
         <v>1</v>
@@ -6288,8 +7404,23 @@
       <c r="W64">
         <v>-0.37</v>
       </c>
+      <c r="X64">
+        <v>-4.1</v>
+      </c>
+      <c r="Y64">
+        <v>29.5</v>
+      </c>
+      <c r="Z64">
+        <v>-0.64</v>
+      </c>
       <c r="AC64" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6297,22 +7428,25 @@
       <c r="AG64">
         <v>1.09395956993103</v>
       </c>
-      <c r="AH64" t="s">
-        <v>195</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>301183</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>-1.76</v>
@@ -6330,7 +7464,7 @@
         <v>49893.98</v>
       </c>
       <c r="J65" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K65">
         <v>11</v>
@@ -6371,8 +7505,23 @@
       <c r="W65">
         <v>-1.1</v>
       </c>
+      <c r="X65">
+        <v>5.94</v>
+      </c>
+      <c r="Y65">
+        <v>74.3</v>
+      </c>
+      <c r="Z65">
+        <v>12.73</v>
+      </c>
       <c r="AC65" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>1</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6380,22 +7529,25 @@
       <c r="AG65">
         <v>1.085494756698608</v>
       </c>
-      <c r="AH65" t="s">
-        <v>195</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>301200</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>-3.77</v>
@@ -6413,7 +7565,7 @@
         <v>69527.47</v>
       </c>
       <c r="J66" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K66">
         <v>5</v>
@@ -6454,8 +7606,23 @@
       <c r="W66">
         <v>0.63</v>
       </c>
+      <c r="X66">
+        <v>9.76</v>
+      </c>
+      <c r="Y66">
+        <v>82.90000000000001</v>
+      </c>
+      <c r="Z66">
+        <v>21.02</v>
+      </c>
       <c r="AC66" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>1</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6463,22 +7630,25 @@
       <c r="AG66">
         <v>2.572121858596802</v>
       </c>
-      <c r="AH66" t="s">
-        <v>195</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>301217</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>-0.9</v>
@@ -6496,7 +7666,7 @@
         <v>148050.57</v>
       </c>
       <c r="J67" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K67">
         <v>18</v>
@@ -6537,8 +7707,23 @@
       <c r="W67">
         <v>-0.08</v>
       </c>
+      <c r="X67">
+        <v>-2.07</v>
+      </c>
+      <c r="Y67">
+        <v>27.6</v>
+      </c>
+      <c r="Z67">
+        <v>3.99</v>
+      </c>
       <c r="AC67" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6546,22 +7731,25 @@
       <c r="AG67">
         <v>4.986002445220947</v>
       </c>
-      <c r="AH67" t="s">
-        <v>195</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>301285</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>-6.05</v>
@@ -6579,7 +7767,7 @@
         <v>69332.63</v>
       </c>
       <c r="J68" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K68">
         <v>3</v>
@@ -6620,8 +7808,23 @@
       <c r="W68">
         <v>1.14</v>
       </c>
+      <c r="X68">
+        <v>-2.92</v>
+      </c>
+      <c r="Y68">
+        <v>43</v>
+      </c>
+      <c r="Z68">
+        <v>3.76</v>
+      </c>
       <c r="AC68" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6629,22 +7832,25 @@
       <c r="AG68">
         <v>3.411202430725098</v>
       </c>
-      <c r="AH68" t="s">
-        <v>195</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>301306</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>-4.55</v>
@@ -6662,7 +7868,7 @@
         <v>55304.4</v>
       </c>
       <c r="J69" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K69">
         <v>6</v>
@@ -6703,8 +7909,23 @@
       <c r="W69">
         <v>-3.21</v>
       </c>
+      <c r="X69">
+        <v>-4.09</v>
+      </c>
+      <c r="Y69">
+        <v>67.03</v>
+      </c>
+      <c r="Z69">
+        <v>4.82</v>
+      </c>
       <c r="AC69" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -6712,22 +7933,25 @@
       <c r="AG69">
         <v>5.059965133666992</v>
       </c>
-      <c r="AH69" t="s">
-        <v>195</v>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>301345</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>-0.58</v>
@@ -6745,7 +7969,7 @@
         <v>37152.18</v>
       </c>
       <c r="J70" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K70">
         <v>5</v>
@@ -6786,8 +8010,23 @@
       <c r="W70">
         <v>0.09</v>
       </c>
+      <c r="X70">
+        <v>-2.23</v>
+      </c>
+      <c r="Y70">
+        <v>164.37</v>
+      </c>
+      <c r="Z70">
+        <v>2.46</v>
+      </c>
       <c r="AC70" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -6795,22 +8034,25 @@
       <c r="AG70">
         <v>7.213472366333008</v>
       </c>
-      <c r="AH70" t="s">
-        <v>195</v>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>301357</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>0.39</v>
@@ -6828,7 +8070,7 @@
         <v>102399.05</v>
       </c>
       <c r="J71" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K71">
         <v>2</v>
@@ -6869,8 +8111,23 @@
       <c r="W71">
         <v>-3.14</v>
       </c>
+      <c r="X71">
+        <v>17.22</v>
+      </c>
+      <c r="Y71">
+        <v>105</v>
+      </c>
+      <c r="Z71">
+        <v>19.73</v>
+      </c>
       <c r="AC71" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>1</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -6878,22 +8135,25 @@
       <c r="AG71">
         <v>-0.3488229513168335</v>
       </c>
-      <c r="AH71" t="s">
-        <v>195</v>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>301377</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>-3.02</v>
@@ -6911,7 +8171,7 @@
         <v>41253.8</v>
       </c>
       <c r="J72" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K72">
         <v>12</v>
@@ -6952,8 +8212,23 @@
       <c r="W72">
         <v>-0.05</v>
       </c>
+      <c r="X72">
+        <v>-1.38</v>
+      </c>
+      <c r="Y72">
+        <v>57.5</v>
+      </c>
+      <c r="Z72">
+        <v>7.8</v>
+      </c>
       <c r="AC72" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>1</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -6961,22 +8236,25 @@
       <c r="AG72">
         <v>2.89067554473877</v>
       </c>
-      <c r="AH72" t="s">
-        <v>195</v>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>301389</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>-2.52</v>
@@ -6994,7 +8272,7 @@
         <v>56044.47</v>
       </c>
       <c r="J73" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K73">
         <v>17</v>
@@ -7035,8 +8313,23 @@
       <c r="W73">
         <v>-1.61</v>
       </c>
+      <c r="X73">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="Y73">
+        <v>39.44</v>
+      </c>
+      <c r="Z73">
+        <v>11.92</v>
+      </c>
       <c r="AC73" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>1</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -7044,22 +8337,25 @@
       <c r="AG73">
         <v>2.246736288070679</v>
       </c>
-      <c r="AH73" t="s">
-        <v>195</v>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <v>301392</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E74">
         <v>3.19</v>
@@ -7077,7 +8373,7 @@
         <v>53985.73</v>
       </c>
       <c r="J74" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K74">
         <v>2</v>
@@ -7118,8 +8414,23 @@
       <c r="W74">
         <v>0.04</v>
       </c>
+      <c r="X74">
+        <v>-4.58</v>
+      </c>
+      <c r="Y74">
+        <v>167.2</v>
+      </c>
+      <c r="Z74">
+        <v>1.27</v>
+      </c>
       <c r="AC74" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -7127,22 +8438,25 @@
       <c r="AG74">
         <v>3.583881855010986</v>
       </c>
-      <c r="AH74" t="s">
-        <v>195</v>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C75">
         <v>301421</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E75">
         <v>-0.17</v>
@@ -7160,7 +8474,7 @@
         <v>38655.8</v>
       </c>
       <c r="J75" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K75">
         <v>28</v>
@@ -7201,8 +8515,23 @@
       <c r="W75">
         <v>-0.42</v>
       </c>
+      <c r="X75">
+        <v>-3.68</v>
+      </c>
+      <c r="Y75">
+        <v>78.5</v>
+      </c>
+      <c r="Z75">
+        <v>0.4</v>
+      </c>
       <c r="AC75" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
       </c>
       <c r="AF75">
         <v>1</v>
@@ -7210,22 +8539,25 @@
       <c r="AG75">
         <v>6.219934463500977</v>
       </c>
-      <c r="AH75" t="s">
-        <v>195</v>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C76">
         <v>301511</v>
       </c>
       <c r="D76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E76">
         <v>1.29</v>
@@ -7243,7 +8575,7 @@
         <v>222966.37</v>
       </c>
       <c r="J76" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K76">
         <v>27</v>
@@ -7284,8 +8616,23 @@
       <c r="W76">
         <v>2.23</v>
       </c>
+      <c r="X76">
+        <v>1.5</v>
+      </c>
+      <c r="Y76">
+        <v>38.35</v>
+      </c>
+      <c r="Z76">
+        <v>10.87</v>
+      </c>
       <c r="AC76" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>1</v>
       </c>
       <c r="AF76">
         <v>0</v>
@@ -7293,22 +8640,25 @@
       <c r="AG76">
         <v>7.866568088531494</v>
       </c>
-      <c r="AH76" t="s">
-        <v>195</v>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C77">
         <v>301526</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E77">
         <v>-2.4</v>
@@ -7326,7 +8676,7 @@
         <v>47145.59</v>
       </c>
       <c r="J77" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K77">
         <v>17</v>
@@ -7367,8 +8717,23 @@
       <c r="W77">
         <v>-0.8</v>
       </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>5.09</v>
+      </c>
+      <c r="Z77">
+        <v>4.3</v>
+      </c>
       <c r="AC77" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
       </c>
       <c r="AF77">
         <v>0</v>
@@ -7376,22 +8741,25 @@
       <c r="AG77">
         <v>4.599104881286621</v>
       </c>
-      <c r="AH77" t="s">
-        <v>195</v>
+      <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C78">
         <v>301529</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E78">
         <v>-3.85</v>
@@ -7409,7 +8777,7 @@
         <v>31911.48</v>
       </c>
       <c r="J78" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K78">
         <v>8</v>
@@ -7450,8 +8818,23 @@
       <c r="W78">
         <v>-1.79</v>
       </c>
+      <c r="X78">
+        <v>6.27</v>
+      </c>
+      <c r="Y78">
+        <v>61.7</v>
+      </c>
+      <c r="Z78">
+        <v>6.95</v>
+      </c>
       <c r="AC78" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
       </c>
       <c r="AF78">
         <v>0</v>
@@ -7459,22 +8842,25 @@
       <c r="AG78">
         <v>2.938740730285645</v>
       </c>
-      <c r="AH78" t="s">
-        <v>195</v>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C79">
         <v>301580</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E79">
         <v>-4.49</v>
@@ -7492,7 +8878,7 @@
         <v>53168.15</v>
       </c>
       <c r="J79" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K79">
         <v>3</v>
@@ -7533,8 +8919,23 @@
       <c r="W79">
         <v>-0.66</v>
       </c>
+      <c r="X79">
+        <v>-2.63</v>
+      </c>
+      <c r="Y79">
+        <v>51.61</v>
+      </c>
+      <c r="Z79">
+        <v>1.18</v>
+      </c>
       <c r="AC79" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
       </c>
       <c r="AF79">
         <v>0</v>
@@ -7542,22 +8943,25 @@
       <c r="AG79">
         <v>3.955157041549683</v>
       </c>
-      <c r="AH79" t="s">
-        <v>195</v>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C80">
         <v>301626</v>
       </c>
       <c r="D80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E80">
         <v>-2.52</v>
@@ -7575,7 +8979,7 @@
         <v>31423.55</v>
       </c>
       <c r="J80" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K80">
         <v>7</v>
@@ -7616,8 +9020,23 @@
       <c r="W80">
         <v>-1.19</v>
       </c>
+      <c r="X80">
+        <v>0.47</v>
+      </c>
+      <c r="Y80">
+        <v>145.96</v>
+      </c>
+      <c r="Z80">
+        <v>3.78</v>
+      </c>
       <c r="AC80" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
       </c>
       <c r="AF80">
         <v>0</v>
@@ -7625,22 +9044,25 @@
       <c r="AG80">
         <v>1.791827917098999</v>
       </c>
-      <c r="AH80" t="s">
-        <v>195</v>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C81">
         <v>688011</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E81">
         <v>-1.83</v>
@@ -7658,7 +9080,7 @@
         <v>30832.82</v>
       </c>
       <c r="J81" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K81">
         <v>1</v>
@@ -7699,8 +9121,23 @@
       <c r="W81">
         <v>-0.08</v>
       </c>
+      <c r="X81">
+        <v>-1.54</v>
+      </c>
+      <c r="Y81">
+        <v>42.01</v>
+      </c>
+      <c r="Z81">
+        <v>5.55</v>
+      </c>
       <c r="AC81" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
       </c>
       <c r="AF81">
         <v>0</v>
@@ -7708,22 +9145,25 @@
       <c r="AG81">
         <v>2.781527996063232</v>
       </c>
-      <c r="AH81" t="s">
-        <v>195</v>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C82">
         <v>688020</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E82">
         <v>-3.2</v>
@@ -7741,7 +9181,7 @@
         <v>66322.35000000001</v>
       </c>
       <c r="J82" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K82">
         <v>1</v>
@@ -7782,8 +9222,23 @@
       <c r="W82">
         <v>-1.29</v>
       </c>
+      <c r="X82">
+        <v>2.12</v>
+      </c>
+      <c r="Y82">
+        <v>62.5</v>
+      </c>
+      <c r="Z82">
+        <v>14.13</v>
+      </c>
       <c r="AC82" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>1</v>
       </c>
       <c r="AF82">
         <v>0</v>
@@ -7791,22 +9246,25 @@
       <c r="AG82">
         <v>2.011944770812988</v>
       </c>
-      <c r="AH82" t="s">
-        <v>195</v>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C83">
         <v>688062</v>
       </c>
       <c r="D83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E83">
         <v>-4.53</v>
@@ -7824,7 +9282,7 @@
         <v>55952.92</v>
       </c>
       <c r="J83" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K83">
         <v>2</v>
@@ -7865,8 +9323,23 @@
       <c r="W83">
         <v>-0.45</v>
       </c>
+      <c r="X83">
+        <v>3.88</v>
+      </c>
+      <c r="Y83">
+        <v>37</v>
+      </c>
+      <c r="Z83">
+        <v>11.04</v>
+      </c>
       <c r="AC83" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>1</v>
       </c>
       <c r="AF83">
         <v>0</v>
@@ -7874,22 +9347,25 @@
       <c r="AG83">
         <v>5.342178821563721</v>
       </c>
-      <c r="AH83" t="s">
-        <v>195</v>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:34">
+    <row r="84" spans="1:35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C84">
         <v>688110</v>
       </c>
       <c r="D84" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E84">
         <v>17.39</v>
@@ -7907,7 +9383,7 @@
         <v>381739.65</v>
       </c>
       <c r="J84" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K84">
         <v>2</v>
@@ -7948,8 +9424,23 @@
       <c r="W84">
         <v>-2.02</v>
       </c>
+      <c r="X84">
+        <v>19.99</v>
+      </c>
+      <c r="Y84">
+        <v>64.76000000000001</v>
+      </c>
+      <c r="Z84">
+        <v>19.93</v>
+      </c>
       <c r="AC84" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD84">
+        <v>1</v>
+      </c>
+      <c r="AE84">
+        <v>1</v>
       </c>
       <c r="AF84">
         <v>1</v>
@@ -7957,22 +9448,25 @@
       <c r="AG84">
         <v>2.504657983779907</v>
       </c>
-      <c r="AH84" t="s">
-        <v>195</v>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:34">
+    <row r="85" spans="1:35">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C85">
         <v>688189</v>
       </c>
       <c r="D85" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E85">
         <v>20</v>
@@ -7990,7 +9484,7 @@
         <v>68702.96000000001</v>
       </c>
       <c r="J85" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K85">
         <v>1</v>
@@ -8031,8 +9525,23 @@
       <c r="W85">
         <v>2</v>
       </c>
+      <c r="X85">
+        <v>20.03</v>
+      </c>
+      <c r="Y85">
+        <v>17.14</v>
+      </c>
+      <c r="Z85">
+        <v>20.03</v>
+      </c>
       <c r="AC85" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD85">
+        <v>1</v>
+      </c>
+      <c r="AE85">
+        <v>1</v>
       </c>
       <c r="AF85">
         <v>1</v>
@@ -8040,22 +9549,25 @@
       <c r="AG85">
         <v>17.18169975280762</v>
       </c>
-      <c r="AH85" t="s">
-        <v>196</v>
+      <c r="AH85">
+        <v>1</v>
+      </c>
+      <c r="AI85">
+        <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:34">
+    <row r="86" spans="1:35">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C86">
         <v>688202</v>
       </c>
       <c r="D86" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E86">
         <v>-6.82</v>
@@ -8073,7 +9585,7 @@
         <v>61875.58</v>
       </c>
       <c r="J86" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K86">
         <v>17</v>
@@ -8114,8 +9626,23 @@
       <c r="W86">
         <v>-1.09</v>
       </c>
+      <c r="X86">
+        <v>1.04</v>
+      </c>
+      <c r="Y86">
+        <v>65.16</v>
+      </c>
+      <c r="Z86">
+        <v>4.14</v>
+      </c>
       <c r="AC86" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
       </c>
       <c r="AF86">
         <v>1</v>
@@ -8123,22 +9650,25 @@
       <c r="AG86">
         <v>7.182374954223633</v>
       </c>
-      <c r="AH86" t="s">
-        <v>195</v>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:34">
+    <row r="87" spans="1:35">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C87">
         <v>688210</v>
       </c>
       <c r="D87" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E87">
         <v>-5.32</v>
@@ -8156,7 +9686,7 @@
         <v>34321.5</v>
       </c>
       <c r="J87" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K87">
         <v>5</v>
@@ -8197,8 +9727,23 @@
       <c r="W87">
         <v>-0.63</v>
       </c>
+      <c r="X87">
+        <v>-1.19</v>
+      </c>
+      <c r="Y87">
+        <v>35.21</v>
+      </c>
+      <c r="Z87">
+        <v>2.59</v>
+      </c>
       <c r="AC87" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
       </c>
       <c r="AF87">
         <v>0</v>
@@ -8206,22 +9751,25 @@
       <c r="AG87">
         <v>3.929897785186768</v>
       </c>
-      <c r="AH87" t="s">
-        <v>195</v>
+      <c r="AH87">
+        <v>0</v>
+      </c>
+      <c r="AI87">
+        <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:34">
+    <row r="88" spans="1:35">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C88">
         <v>688221</v>
       </c>
       <c r="D88" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E88">
         <v>-0.04</v>
@@ -8239,7 +9787,7 @@
         <v>85519.67</v>
       </c>
       <c r="J88" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K88">
         <v>3</v>
@@ -8280,8 +9828,23 @@
       <c r="W88">
         <v>0</v>
       </c>
+      <c r="X88">
+        <v>-3.38</v>
+      </c>
+      <c r="Y88">
+        <v>22.6</v>
+      </c>
+      <c r="Z88">
+        <v>0.85</v>
+      </c>
       <c r="AC88" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
       </c>
       <c r="AF88">
         <v>0</v>
@@ -8289,22 +9852,25 @@
       <c r="AG88">
         <v>3.725389957427979</v>
       </c>
-      <c r="AH88" t="s">
-        <v>195</v>
+      <c r="AH88">
+        <v>0</v>
+      </c>
+      <c r="AI88">
+        <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:34">
+    <row r="89" spans="1:35">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C89">
         <v>688222</v>
       </c>
       <c r="D89" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E89">
         <v>-0.34</v>
@@ -8322,7 +9888,7 @@
         <v>84315.08</v>
       </c>
       <c r="J89" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K89">
         <v>9</v>
@@ -8363,8 +9929,23 @@
       <c r="W89">
         <v>0.29</v>
       </c>
+      <c r="X89">
+        <v>-0.89</v>
+      </c>
+      <c r="Y89">
+        <v>24.2</v>
+      </c>
+      <c r="Z89">
+        <v>2.37</v>
+      </c>
       <c r="AC89" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>0</v>
       </c>
       <c r="AF89">
         <v>0</v>
@@ -8372,22 +9953,25 @@
       <c r="AG89">
         <v>5.208818912506104</v>
       </c>
-      <c r="AH89" t="s">
-        <v>195</v>
+      <c r="AH89">
+        <v>0</v>
+      </c>
+      <c r="AI89">
+        <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:34">
+    <row r="90" spans="1:35">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C90">
         <v>688313</v>
       </c>
       <c r="D90" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E90">
         <v>-7.97</v>
@@ -8405,7 +9989,7 @@
         <v>300199.27</v>
       </c>
       <c r="J90" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K90">
         <v>31</v>
@@ -8446,8 +10030,23 @@
       <c r="W90">
         <v>-1.31</v>
       </c>
+      <c r="X90">
+        <v>-12.46</v>
+      </c>
+      <c r="Y90">
+        <v>64.28</v>
+      </c>
+      <c r="Z90">
+        <v>4.44</v>
+      </c>
       <c r="AC90" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD90">
+        <v>0</v>
+      </c>
+      <c r="AE90">
+        <v>0</v>
       </c>
       <c r="AF90">
         <v>0</v>
@@ -8455,22 +10054,25 @@
       <c r="AG90">
         <v>2.978521823883057</v>
       </c>
-      <c r="AH90" t="s">
-        <v>195</v>
+      <c r="AH90">
+        <v>0</v>
+      </c>
+      <c r="AI90">
+        <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:34">
+    <row r="91" spans="1:35">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C91">
         <v>688321</v>
       </c>
       <c r="D91" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E91">
         <v>-2.97</v>
@@ -8488,7 +10090,7 @@
         <v>76383.03</v>
       </c>
       <c r="J91" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K91">
         <v>22</v>
@@ -8529,8 +10131,23 @@
       <c r="W91">
         <v>-0.31</v>
       </c>
+      <c r="X91">
+        <v>0.27</v>
+      </c>
+      <c r="Y91">
+        <v>39.06</v>
+      </c>
+      <c r="Z91">
+        <v>4.92</v>
+      </c>
       <c r="AC91" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD91">
+        <v>0</v>
+      </c>
+      <c r="AE91">
+        <v>0</v>
       </c>
       <c r="AF91">
         <v>0</v>
@@ -8538,22 +10155,25 @@
       <c r="AG91">
         <v>4.133316993713379</v>
       </c>
-      <c r="AH91" t="s">
-        <v>195</v>
+      <c r="AH91">
+        <v>0</v>
+      </c>
+      <c r="AI91">
+        <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:34">
+    <row r="92" spans="1:35">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C92">
         <v>688425</v>
       </c>
       <c r="D92" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E92">
         <v>-3.26</v>
@@ -8571,7 +10191,7 @@
         <v>144620.62</v>
       </c>
       <c r="J92" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K92">
         <v>5</v>
@@ -8612,8 +10232,23 @@
       <c r="W92">
         <v>-0.24</v>
       </c>
+      <c r="X92">
+        <v>-3.69</v>
+      </c>
+      <c r="Y92">
+        <v>6.55</v>
+      </c>
+      <c r="Z92">
+        <v>0.31</v>
+      </c>
       <c r="AC92" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD92">
+        <v>0</v>
+      </c>
+      <c r="AE92">
+        <v>0</v>
       </c>
       <c r="AF92">
         <v>0</v>
@@ -8621,22 +10256,25 @@
       <c r="AG92">
         <v>4.749929428100586</v>
       </c>
-      <c r="AH92" t="s">
-        <v>195</v>
+      <c r="AH92">
+        <v>0</v>
+      </c>
+      <c r="AI92">
+        <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:34">
+    <row r="93" spans="1:35">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C93">
         <v>688499</v>
       </c>
       <c r="D93" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E93">
         <v>-4.39</v>
@@ -8654,7 +10292,7 @@
         <v>77779.39</v>
       </c>
       <c r="J93" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K93">
         <v>32</v>
@@ -8695,8 +10333,23 @@
       <c r="W93">
         <v>-0.26</v>
       </c>
+      <c r="X93">
+        <v>-2.95</v>
+      </c>
+      <c r="Y93">
+        <v>54.41</v>
+      </c>
+      <c r="Z93">
+        <v>0.68</v>
+      </c>
       <c r="AC93" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD93">
+        <v>0</v>
+      </c>
+      <c r="AE93">
+        <v>0</v>
       </c>
       <c r="AF93">
         <v>1</v>
@@ -8704,22 +10357,25 @@
       <c r="AG93">
         <v>6.030290126800537</v>
       </c>
-      <c r="AH93" t="s">
-        <v>195</v>
+      <c r="AH93">
+        <v>0</v>
+      </c>
+      <c r="AI93">
+        <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:34">
+    <row r="94" spans="1:35">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C94">
         <v>688502</v>
       </c>
       <c r="D94" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E94">
         <v>0.67</v>
@@ -8737,7 +10393,7 @@
         <v>59433.17</v>
       </c>
       <c r="J94" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K94">
         <v>3</v>
@@ -8778,8 +10434,23 @@
       <c r="W94">
         <v>0.14</v>
       </c>
+      <c r="X94">
+        <v>-4.51</v>
+      </c>
+      <c r="Y94">
+        <v>348.88</v>
+      </c>
+      <c r="Z94">
+        <v>0.18</v>
+      </c>
       <c r="AC94" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD94">
+        <v>0</v>
+      </c>
+      <c r="AE94">
+        <v>0</v>
       </c>
       <c r="AF94">
         <v>1</v>
@@ -8787,22 +10458,25 @@
       <c r="AG94">
         <v>8.453845977783203</v>
       </c>
-      <c r="AH94" t="s">
-        <v>195</v>
+      <c r="AH94">
+        <v>0</v>
+      </c>
+      <c r="AI94">
+        <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:34">
+    <row r="95" spans="1:35">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C95">
         <v>688556</v>
       </c>
       <c r="D95" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E95">
         <v>-4.18</v>
@@ -8820,7 +10494,7 @@
         <v>53570.13</v>
       </c>
       <c r="J95" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K95">
         <v>3</v>
@@ -8861,8 +10535,23 @@
       <c r="W95">
         <v>-0.5600000000000001</v>
       </c>
+      <c r="X95">
+        <v>-1.32</v>
+      </c>
+      <c r="Y95">
+        <v>11.34</v>
+      </c>
+      <c r="Z95">
+        <v>7.59</v>
+      </c>
       <c r="AC95" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD95">
+        <v>0</v>
+      </c>
+      <c r="AE95">
+        <v>1</v>
       </c>
       <c r="AF95">
         <v>0</v>
@@ -8870,22 +10559,25 @@
       <c r="AG95">
         <v>2.461380958557129</v>
       </c>
-      <c r="AH95" t="s">
-        <v>195</v>
+      <c r="AH95">
+        <v>0</v>
+      </c>
+      <c r="AI95">
+        <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:34">
+    <row r="96" spans="1:35">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C96">
         <v>688603</v>
       </c>
       <c r="D96" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E96">
         <v>0.02</v>
@@ -8903,7 +10595,7 @@
         <v>49985.14</v>
       </c>
       <c r="J96" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K96">
         <v>1</v>
@@ -8944,8 +10636,23 @@
       <c r="W96">
         <v>-0.21</v>
       </c>
+      <c r="X96">
+        <v>1.97</v>
+      </c>
+      <c r="Y96">
+        <v>70</v>
+      </c>
+      <c r="Z96">
+        <v>11.71</v>
+      </c>
       <c r="AC96" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD96">
+        <v>0</v>
+      </c>
+      <c r="AE96">
+        <v>1</v>
       </c>
       <c r="AF96">
         <v>0</v>
@@ -8953,22 +10660,25 @@
       <c r="AG96">
         <v>2.247893333435059</v>
       </c>
-      <c r="AH96" t="s">
-        <v>195</v>
+      <c r="AH96">
+        <v>0</v>
+      </c>
+      <c r="AI96">
+        <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:34">
+    <row r="97" spans="1:35">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C97">
         <v>688630</v>
       </c>
       <c r="D97" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E97">
         <v>-3.51</v>
@@ -8986,7 +10696,7 @@
         <v>156430.76</v>
       </c>
       <c r="J97" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K97">
         <v>5</v>
@@ -9027,8 +10737,23 @@
       <c r="W97">
         <v>-1.45</v>
       </c>
+      <c r="X97">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="Y97">
+        <v>134.2</v>
+      </c>
+      <c r="Z97">
+        <v>9.859999999999999</v>
+      </c>
       <c r="AC97" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD97">
+        <v>0</v>
+      </c>
+      <c r="AE97">
+        <v>1</v>
       </c>
       <c r="AF97">
         <v>0</v>
@@ -9036,22 +10761,25 @@
       <c r="AG97">
         <v>-0.1484200209379196</v>
       </c>
-      <c r="AH97" t="s">
-        <v>195</v>
+      <c r="AH97">
+        <v>0</v>
+      </c>
+      <c r="AI97">
+        <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:34">
+    <row r="98" spans="1:35">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C98">
         <v>688660</v>
       </c>
       <c r="D98" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E98">
         <v>0.36</v>
@@ -9069,7 +10797,7 @@
         <v>126210.1</v>
       </c>
       <c r="J98" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K98">
         <v>6</v>
@@ -9110,8 +10838,23 @@
       <c r="W98">
         <v>0.01</v>
       </c>
+      <c r="X98">
+        <v>-16.61</v>
+      </c>
+      <c r="Y98">
+        <v>15.91</v>
+      </c>
+      <c r="Z98">
+        <v>-4.79</v>
+      </c>
       <c r="AC98" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD98">
+        <v>0</v>
+      </c>
+      <c r="AE98">
+        <v>0</v>
       </c>
       <c r="AF98">
         <v>0</v>
@@ -9119,22 +10862,25 @@
       <c r="AG98">
         <v>0.02765104174613953</v>
       </c>
-      <c r="AH98" t="s">
-        <v>195</v>
+      <c r="AH98">
+        <v>0</v>
+      </c>
+      <c r="AI98">
+        <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:34">
+    <row r="99" spans="1:35">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C99">
         <v>688668</v>
       </c>
       <c r="D99" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E99">
         <v>-2.09</v>
@@ -9152,7 +10898,7 @@
         <v>50604.43</v>
       </c>
       <c r="J99" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K99">
         <v>10</v>
@@ -9193,8 +10939,23 @@
       <c r="W99">
         <v>0.03</v>
       </c>
+      <c r="X99">
+        <v>10.24</v>
+      </c>
+      <c r="Y99">
+        <v>101.5</v>
+      </c>
+      <c r="Z99">
+        <v>16.87</v>
+      </c>
       <c r="AC99" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD99">
+        <v>0</v>
+      </c>
+      <c r="AE99">
+        <v>1</v>
       </c>
       <c r="AF99">
         <v>0</v>
@@ -9202,22 +10963,25 @@
       <c r="AG99">
         <v>4.636109828948975</v>
       </c>
-      <c r="AH99" t="s">
-        <v>195</v>
+      <c r="AH99">
+        <v>0</v>
+      </c>
+      <c r="AI99">
+        <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:34">
+    <row r="100" spans="1:35">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C100">
         <v>688708</v>
       </c>
       <c r="D100" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E100">
         <v>2.3</v>
@@ -9235,7 +10999,7 @@
         <v>27168.17</v>
       </c>
       <c r="J100" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K100">
         <v>2</v>
@@ -9276,8 +11040,23 @@
       <c r="W100">
         <v>0.02</v>
       </c>
+      <c r="X100">
+        <v>3.98</v>
+      </c>
+      <c r="Y100">
+        <v>85.5</v>
+      </c>
+      <c r="Z100">
+        <v>5</v>
+      </c>
       <c r="AC100" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD100">
+        <v>0</v>
+      </c>
+      <c r="AE100">
+        <v>0</v>
       </c>
       <c r="AF100">
         <v>0</v>
@@ -9285,22 +11064,25 @@
       <c r="AG100">
         <v>4.341367721557617</v>
       </c>
-      <c r="AH100" t="s">
-        <v>195</v>
+      <c r="AH100">
+        <v>0</v>
+      </c>
+      <c r="AI100">
+        <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:34">
+    <row r="101" spans="1:35">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C101">
         <v>688787</v>
       </c>
       <c r="D101" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E101">
         <v>0.07000000000000001</v>
@@ -9318,7 +11100,7 @@
         <v>46423.91</v>
       </c>
       <c r="J101" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K101">
         <v>1</v>
@@ -9359,8 +11141,23 @@
       <c r="W101">
         <v>0.1</v>
       </c>
+      <c r="X101">
+        <v>-2.37</v>
+      </c>
+      <c r="Y101">
+        <v>145</v>
+      </c>
+      <c r="Z101">
+        <v>2.78</v>
+      </c>
       <c r="AC101" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD101">
+        <v>0</v>
+      </c>
+      <c r="AE101">
+        <v>0</v>
       </c>
       <c r="AF101">
         <v>0</v>
@@ -9368,8 +11165,11 @@
       <c r="AG101">
         <v>6.004515647888184</v>
       </c>
-      <c r="AH101" t="s">
-        <v>195</v>
+      <c r="AH101">
+        <v>0</v>
+      </c>
+      <c r="AI101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
